--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E28EA9-57E9-4DDC-8B58-8D2505BE3DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E300D547-9684-4312-BE51-08F579FAF7A2}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="192">
   <si>
     <t>А1.1</t>
   </si>
@@ -476,16 +475,145 @@
     <t>Б1.40</t>
   </si>
   <si>
-    <t>3 + 2,7</t>
-  </si>
-  <si>
     <t>Сумма</t>
+  </si>
+  <si>
+    <t>Номер коммутатора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длинна до коммутатора м. </t>
+  </si>
+  <si>
+    <t>4,4 + 3,28 + 3,2</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28 + 3,2 + 1,24 + 9,35 + 1,28</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28 + 3,2 + 1,24 + 9,35 + 1,28 + 3,2</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 3,2</t>
+  </si>
+  <si>
+    <t>№ розетки</t>
+  </si>
+  <si>
+    <t>№ шкафа</t>
+  </si>
+  <si>
+    <t>КШ А1.5</t>
+  </si>
+  <si>
+    <t>КШ А1.4</t>
+  </si>
+  <si>
+    <t>КШ А1.3</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 3,2 + 9,52 + 1,14</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 3,2 + 9,52 + 1,14 + 3,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,98 + 3,24 </t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 3,2</t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42</t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42 + 3,2</t>
+  </si>
+  <si>
+    <t>КШ А1.1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 3,25</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 3,25 + 3,2</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 3,25 + 3,2 + 2,51 + 3,68</t>
+  </si>
+  <si>
+    <t>КШ А1.2</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 3,2</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 3,2 + 3,24</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 3,2 + 3,24 + 3,38</t>
+  </si>
+  <si>
+    <t>КШ А2.7</t>
+  </si>
+  <si>
+    <t>КШ А2.8</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2 + 1,8 + 6,12 + 1,58</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2 + 1,8 + 6,12 + 1,58 + 3,2</t>
+  </si>
+  <si>
+    <t>2,34 + 3,2</t>
+  </si>
+  <si>
+    <t>2,34 + 3,2 + 3,24</t>
+  </si>
+  <si>
+    <t>1,45 + 8,24 + 3,2</t>
+  </si>
+  <si>
+    <t>1,45 + 8,24</t>
+  </si>
+  <si>
+    <t>КШ А2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,48 + 3,24 </t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,53 + 1,23</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,53 + 1,23 + 3,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,10 +666,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -855,908 +995,1299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F0C2FD-0E65-40F7-9CDD-E5F52B66A5F4}">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>3.49</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="1"/>
+      <c r="O7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="1"/>
+      <c r="O8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+      <c r="R8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3">
+        <v>4.38</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1"/>
       <c r="G9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1"/>
+      <c r="O9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+      <c r="R10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="1"/>
+      <c r="O11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+      <c r="R11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="O12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="1"/>
+      <c r="O13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="1"/>
       <c r="G14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="1"/>
+      <c r="O14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="1"/>
+      <c r="L16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="1"/>
+      <c r="L17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="1"/>
+      <c r="O17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="1"/>
+      <c r="L18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="1"/>
+      <c r="O18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="1"/>
+      <c r="L19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="1"/>
+      <c r="O19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="1"/>
+      <c r="L20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="1"/>
+      <c r="O20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="1"/>
+      <c r="L21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="1"/>
+      <c r="O21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3">
+        <v>3.24</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="1"/>
+      <c r="O22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="1"/>
+      <c r="L23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="1"/>
+      <c r="O23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="1"/>
+      <c r="L24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="1"/>
+      <c r="O24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="1"/>
+      <c r="I25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="1"/>
+      <c r="L25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="1"/>
+      <c r="O25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="1"/>
+      <c r="L26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="1"/>
+      <c r="O26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="D27" s="1" t="s">
+      <c r="P26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="1"/>
+      <c r="L27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="1"/>
+      <c r="O27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="D28" s="1" t="s">
+      <c r="P27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="1"/>
+      <c r="I28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="1"/>
+      <c r="L28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="1"/>
+      <c r="O28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="D29" s="1" t="s">
+      <c r="P28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="1"/>
+      <c r="I29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="1"/>
+      <c r="L29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="1"/>
+      <c r="O29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="D30" s="1" t="s">
+      <c r="P29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="1"/>
+      <c r="I30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="1"/>
+      <c r="L30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="1"/>
+      <c r="O30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="D31" s="1" t="s">
+      <c r="P30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="1"/>
+      <c r="I31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="1"/>
+      <c r="L31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="1"/>
+      <c r="O31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
+      <c r="P31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="1"/>
+      <c r="I32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="1"/>
+      <c r="L32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="1"/>
+      <c r="O32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+      <c r="P32" s="1"/>
+      <c r="R32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="1"/>
+      <c r="L33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="1"/>
+      <c r="O33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+      <c r="P33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="1"/>
+      <c r="L34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="1"/>
+      <c r="O34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
+      <c r="P34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="1"/>
+      <c r="I35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="1"/>
+      <c r="L35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="1"/>
+      <c r="O35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
+      <c r="P35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="1"/>
+      <c r="I36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="1"/>
+      <c r="L36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="1"/>
+      <c r="O36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
+      <c r="P36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="1"/>
+      <c r="I37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="1"/>
+      <c r="L37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="1"/>
+      <c r="O37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+      <c r="P37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="1"/>
+      <c r="L38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+      <c r="M38" s="1"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="1"/>
+      <c r="I39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="1"/>
+      <c r="L39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K39" s="1"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+      <c r="M39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="I40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="1"/>
+      <c r="L40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D41" s="1" t="s">
+      <c r="M40" s="1"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="1"/>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="1"/>
+      <c r="I41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="1"/>
+      <c r="L41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39480223-A0BC-4244-B624-603E4DA28CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -613,7 +606,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,10 +659,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -995,11 +987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1075,7 @@
       <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>3.49</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1147,7 +1139,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>4.4000000000000004</v>
       </c>
       <c r="D4" s="1"/>
@@ -1181,10 +1173,10 @@
       <c r="A5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="1"/>
@@ -1221,7 +1213,7 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="1"/>
@@ -1268,7 +1260,7 @@
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>2.34</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1332,7 +1324,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>4.38</v>
       </c>
       <c r="D9" s="1"/>
@@ -1453,7 +1445,7 @@
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>4.4800000000000004</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1517,7 +1509,7 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1.98</v>
       </c>
       <c r="D14" s="1"/>
@@ -1760,7 +1752,7 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>3.26</v>
       </c>
       <c r="D21" s="1"/>
@@ -1793,7 +1785,7 @@
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>3.24</v>
       </c>
       <c r="D22" s="1"/>
@@ -1952,7 +1944,6 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
         <v>52</v>
@@ -1976,7 +1967,6 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>53</v>
@@ -2000,7 +1990,6 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>54</v>
@@ -2024,7 +2013,6 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -2048,7 +2036,6 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>56</v>
@@ -2223,10 +2210,6 @@
         <v>143</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
     </row>
     <row r="39" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
@@ -2242,10 +2225,6 @@
         <v>144</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
     </row>
     <row r="40" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E40" s="1"/>
@@ -2261,10 +2240,6 @@
         <v>145</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
     </row>
     <row r="41" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E41" s="1"/>
@@ -2280,10 +2255,6 @@
         <v>146</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39480223-A0BC-4244-B624-603E4DA28CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="2280" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="388">
   <si>
     <t>А1.1</t>
   </si>
@@ -105,9 +104,6 @@
     <t>Номер розетки</t>
   </si>
   <si>
-    <t xml:space="preserve">Длинна м. </t>
-  </si>
-  <si>
     <t>А2.1</t>
   </si>
   <si>
@@ -471,30 +467,6 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Номер коммутатора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Длинна до коммутатора м. </t>
-  </si>
-  <si>
-    <t>4,4 + 3,28 + 3,2</t>
-  </si>
-  <si>
-    <t>4,4 + 3,28</t>
-  </si>
-  <si>
-    <t>4,4 + 3,28 + 3,2 + 1,24 + 9,35 + 1,28</t>
-  </si>
-  <si>
-    <t>4,4 + 3,28 + 3,2 + 1,24 + 9,35 + 1,28 + 3,2</t>
-  </si>
-  <si>
-    <t>4,38 + 3,37</t>
-  </si>
-  <si>
-    <t>4,38 + 3,37 + 3,2</t>
-  </si>
-  <si>
     <t>№ розетки</t>
   </si>
   <si>
@@ -510,103 +482,718 @@
     <t>КШ А1.3</t>
   </si>
   <si>
-    <t>4,38 + 3,37 + 3,2 + 9,52 + 1,14</t>
-  </si>
-  <si>
-    <t>4,38 + 3,37 + 3,2 + 9,52 + 1,14 + 3,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,98 + 3,24 </t>
-  </si>
-  <si>
-    <t>1,98 + 3,24 + 3,2</t>
-  </si>
-  <si>
-    <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42</t>
-  </si>
-  <si>
-    <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42 + 3,2</t>
-  </si>
-  <si>
     <t>КШ А1.1</t>
   </si>
   <si>
-    <t>0,42 + 2,65</t>
-  </si>
-  <si>
-    <t>0,42 + 2,65 + 3,25</t>
-  </si>
-  <si>
-    <t>0,42 + 2,65 + 3,25 + 3,2</t>
-  </si>
-  <si>
-    <t>0,42 + 2,65 + 3,25 + 3,2 + 2,51 + 3,68</t>
-  </si>
-  <si>
     <t>КШ А1.2</t>
   </si>
   <si>
-    <t>3,24 + 3,71 + 1,52</t>
-  </si>
-  <si>
-    <t>3,24 + 3,71 + 1,52 + 3,2</t>
-  </si>
-  <si>
-    <t>3,24 + 3,71 + 1,52 + 3,2 + 3,24</t>
-  </si>
-  <si>
-    <t>3,24 + 3,71 + 1,52 + 3,2 + 3,24 + 3,38</t>
-  </si>
-  <si>
     <t>КШ А2.7</t>
   </si>
   <si>
     <t>КШ А2.8</t>
   </si>
   <si>
-    <t>3,49 + 3,24</t>
-  </si>
-  <si>
-    <t>3,49 + 3,24 + 3,2</t>
-  </si>
-  <si>
-    <t>3,49 + 3,24 + 3,2 + 1,8 + 6,12 + 1,58</t>
-  </si>
-  <si>
-    <t>3,49 + 3,24 + 3,2 + 1,8 + 6,12 + 1,58 + 3,2</t>
-  </si>
-  <si>
-    <t>2,34 + 3,2</t>
-  </si>
-  <si>
-    <t>2,34 + 3,2 + 3,24</t>
-  </si>
-  <si>
-    <t>1,45 + 8,24 + 3,2</t>
-  </si>
-  <si>
-    <t>1,45 + 8,24</t>
-  </si>
-  <si>
     <t>КШ А2.4</t>
   </si>
   <si>
-    <t xml:space="preserve">4,48 + 3,24 </t>
-  </si>
-  <si>
-    <t>4,48 + 3,24 + 3,2</t>
-  </si>
-  <si>
-    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,53 + 1,23</t>
-  </si>
-  <si>
-    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,53 + 1,23 + 3,2</t>
+    <t>А1.26</t>
+  </si>
+  <si>
+    <t>А1.27</t>
+  </si>
+  <si>
+    <t>А1.28</t>
+  </si>
+  <si>
+    <t>А1.29</t>
+  </si>
+  <si>
+    <t>А1.30</t>
+  </si>
+  <si>
+    <t>КШ А1.6</t>
+  </si>
+  <si>
+    <t>КШ А1.7</t>
+  </si>
+  <si>
+    <t>КШ А1.8</t>
+  </si>
+  <si>
+    <t>КШ А2.5</t>
+  </si>
+  <si>
+    <t>КШ А2.6</t>
+  </si>
+  <si>
+    <t>КШ А2.1</t>
+  </si>
+  <si>
+    <t>КШ А2.2</t>
+  </si>
+  <si>
+    <t>КШ А2.3</t>
+  </si>
+  <si>
+    <t>КШ А3.7</t>
+  </si>
+  <si>
+    <t>КШ А3.8</t>
+  </si>
+  <si>
+    <t>КШ А3.4</t>
+  </si>
+  <si>
+    <t>КШ А3.5</t>
+  </si>
+  <si>
+    <t>КШ А3.6</t>
+  </si>
+  <si>
+    <t>КШ А3.1</t>
+  </si>
+  <si>
+    <t>КШ А3.2</t>
+  </si>
+  <si>
+    <t>КШ А3.3</t>
+  </si>
+  <si>
+    <t>3,49 + 1</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2 + 1,8 + 6,12 + 1,58 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2 + 1,8 + 6,12 + 1,58 + 1</t>
+  </si>
+  <si>
+    <t>2,34 + 1</t>
+  </si>
+  <si>
+    <t>2,34 + 3,2  + 1</t>
+  </si>
+  <si>
+    <t>2,34 + 3,2 + 3,24  + 1</t>
+  </si>
+  <si>
+    <t>1,45 + 8,24  + 1</t>
+  </si>
+  <si>
+    <t>1,45 + 8,24 + 3,2  + 1</t>
+  </si>
+  <si>
+    <t>4,48  + 1</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24  + 1</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,53 + 1,23 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,53 + 1,23 + 1</t>
+  </si>
+  <si>
+    <t>4,43 + 1</t>
+  </si>
+  <si>
+    <t>4,43 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>4,43 + 3,24 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,43 + 3,24 + 3,2 + 1,31 + 9,71 + 1,22 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,43 + 3,24 + 3,2 + 1,31 + 9,71 + 1,22 + 1</t>
+  </si>
+  <si>
+    <t>2,05 + 1</t>
+  </si>
+  <si>
+    <t>2,05 + 3,23 + 1</t>
+  </si>
+  <si>
+    <t>2,05 + 3,23 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>2,05 + 3,23 + 3,2 + 3,78 + 7,55 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>2,05 + 3,23 + 3,2 + 3,78 + 7,55 + 1</t>
+  </si>
+  <si>
+    <t>2,55 + 3,2 + 1,38 + 4,22 + 4,03 + 1,48 + 1</t>
+  </si>
+  <si>
+    <t>2,55 + 3,2 + 1,38 + 4,22 + 4,03 + 1,48 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>2,55 + 3,2 + 1,38 + 4,22 + 1</t>
+  </si>
+  <si>
+    <t>2,55 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>2,55 + 1</t>
+  </si>
+  <si>
+    <t>3,33 + 3,77 + 1,36 + 3,25 + 3,2 + 1,72 + 3,9 + 1</t>
+  </si>
+  <si>
+    <t>3,33 + 3,77 + 1,36 + 3,25 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>3,33 + 3,77 + 1,36 + 3,25 + 1</t>
+  </si>
+  <si>
+    <t>3,33 + 3,77 + 1,36 + 1</t>
+  </si>
+  <si>
+    <t>3,33 + 1</t>
+  </si>
+  <si>
+    <t>3,34 + 1</t>
+  </si>
+  <si>
+    <t>3,34 + 3,77 + 1,45 + 1</t>
+  </si>
+  <si>
+    <t>3,34 + 3,77 + 1,45 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>3,34 + 3,77 + 1,45 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,34 + 3,77 + 1,45 + 3,2 + 3,24 + 3,38 + 1</t>
+  </si>
+  <si>
+    <t>5,02 + 2,01 + 3,2 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>5,02 + 2,01 + 3,2 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,02 + 2,01 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,02 + 2,01 + 1</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28  + 1</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28 + 3,2  + 1</t>
+  </si>
+  <si>
+    <t>4,4 + 1</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28 + 3,2 + 1,24 + 9,35 + 1,28 + 1</t>
+  </si>
+  <si>
+    <t>4,4 + 3,28 + 3,2 + 1,24 + 9,35 + 1,28 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 1</t>
+  </si>
+  <si>
+    <t>4,38 + 1</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 3,2 + 9,52 + 1,14 + 1</t>
+  </si>
+  <si>
+    <t>4,38 + 3,37 + 3,2 + 9,52 + 1,14 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>1,98 + 1</t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42 + 1</t>
+  </si>
+  <si>
+    <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 3,25 + 3,2 + 2,51 + 3,68 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 3,25 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 3,25 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,65 + 1</t>
+  </si>
+  <si>
+    <t>3,26 + 1</t>
+  </si>
+  <si>
+    <t>3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 1</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,24 + 3,71 + 1,52 + 3,2 + 3,24 + 3,38 + 1</t>
+  </si>
+  <si>
+    <t>6,4 + 1</t>
+  </si>
+  <si>
+    <t>2,22 + 1</t>
+  </si>
+  <si>
+    <t>2,22 + 2,25 + 1</t>
+  </si>
+  <si>
+    <t>2,05 + 3,4 + 1</t>
+  </si>
+  <si>
+    <t>2,34 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>2,34 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>1,45 + 8,24 + 1</t>
+  </si>
+  <si>
+    <t>1,45 + 8,24 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,48 + 1</t>
+  </si>
+  <si>
+    <t>Б1.41</t>
+  </si>
+  <si>
+    <t>Б1.42</t>
+  </si>
+  <si>
+    <t>Б1.43</t>
+  </si>
+  <si>
+    <t>5,02 + 2,01 + 3,2 + 3,2 + 3,24 +  + 5,3 + 10,81 + 1,16 + 1</t>
+  </si>
+  <si>
+    <t>3,36 + 3,27 + 3,21 + 3,2 + 1,56 + 5,57 + 6,31 + 1,55 + 1,7 + 1,7 + 1</t>
+  </si>
+  <si>
+    <t>КШ Б1.1</t>
+  </si>
+  <si>
+    <t>КШ Б1.2</t>
+  </si>
+  <si>
+    <t>КШ Б1.3</t>
+  </si>
+  <si>
+    <t>КШ Б1.4</t>
+  </si>
+  <si>
+    <t>КШ Б1.5</t>
+  </si>
+  <si>
+    <t>КШ Б1.6</t>
+  </si>
+  <si>
+    <t>КШ Б1.7</t>
+  </si>
+  <si>
+    <t>КШ Б1.8</t>
+  </si>
+  <si>
+    <t>КШ Б1.9</t>
+  </si>
+  <si>
+    <t>КШ Б1.10</t>
+  </si>
+  <si>
+    <t>Б2.1</t>
+  </si>
+  <si>
+    <t>Б2.2</t>
+  </si>
+  <si>
+    <t>Б2.3</t>
+  </si>
+  <si>
+    <t>Б2.4</t>
+  </si>
+  <si>
+    <t>Б2.5</t>
+  </si>
+  <si>
+    <t>Б2.6</t>
+  </si>
+  <si>
+    <t>Б2.7</t>
+  </si>
+  <si>
+    <t>Б2.8</t>
+  </si>
+  <si>
+    <t>Б2.9</t>
+  </si>
+  <si>
+    <t>Б2.10</t>
+  </si>
+  <si>
+    <t>Б2.11</t>
+  </si>
+  <si>
+    <t>Б2.12</t>
+  </si>
+  <si>
+    <t>Б2.13</t>
+  </si>
+  <si>
+    <t>Б2.14</t>
+  </si>
+  <si>
+    <t>Б2.15</t>
+  </si>
+  <si>
+    <t>Б2.16</t>
+  </si>
+  <si>
+    <t>Б2.17</t>
+  </si>
+  <si>
+    <t>Б2.18</t>
+  </si>
+  <si>
+    <t>Б2.19</t>
+  </si>
+  <si>
+    <t>Б2.20</t>
+  </si>
+  <si>
+    <t>Б2.21</t>
+  </si>
+  <si>
+    <t>Б2.22</t>
+  </si>
+  <si>
+    <t>Б2.23</t>
+  </si>
+  <si>
+    <t>Б2.24</t>
+  </si>
+  <si>
+    <t>Б2.25</t>
+  </si>
+  <si>
+    <t>Б2.26</t>
+  </si>
+  <si>
+    <t>Б2.27</t>
+  </si>
+  <si>
+    <t>Б2.28</t>
+  </si>
+  <si>
+    <t>Б2.29</t>
+  </si>
+  <si>
+    <t>Б2.30</t>
+  </si>
+  <si>
+    <t>Б2.31</t>
+  </si>
+  <si>
+    <t>Б2.32</t>
+  </si>
+  <si>
+    <t>Б2.33</t>
+  </si>
+  <si>
+    <t>Б2.34</t>
+  </si>
+  <si>
+    <t>Б2.35</t>
+  </si>
+  <si>
+    <t>Б2.36</t>
+  </si>
+  <si>
+    <t>Б2.37</t>
+  </si>
+  <si>
+    <t>5,06 + 1,93 + 3,2 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 1,93 + 3,2 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 1,93 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 1,93 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67 + 5,5 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 4,09 + 3,2 + 3,17 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 4,09 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 4,09 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 4,09 + 3,2 + 3,17 + 1,23 + 5,5 + 1,16 + 1</t>
+  </si>
+  <si>
+    <t>5,06 + 4,09 + 3,2 + 3,17 + 1,23 + 5,5 + 1,16 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>4,07 + 3,17 + 3,32 + 1,35 + 5,65 + 1,2 + 1</t>
+  </si>
+  <si>
+    <t>4,07 + 3,17 + 3,32 + 1,35 + 5,65 + 1,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>4,07 + 3,17 + 3,32 + 1</t>
+  </si>
+  <si>
+    <t>4,07 + 3,17 + 1</t>
+  </si>
+  <si>
+    <t>4,07 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,03 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,03 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,03 + 3,2 + 3,21 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,03 + 3,2 + 3,21 + 1,37 + 5,57 + 1,24 + 3,21 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,03 + 3,2 + 3,21 + 1,37 + 5,57 + 1,24 + 1</t>
+  </si>
+  <si>
+    <t>3,36 + 3,27 + 3,21 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>3,36 + 3,27 + 3,21 + 1</t>
+  </si>
+  <si>
+    <t>3,36 + 3,27 + 1</t>
+  </si>
+  <si>
+    <t>3,36 + 1</t>
+  </si>
+  <si>
+    <t>0,52 + 2,08 + 1</t>
+  </si>
+  <si>
+    <t>4,35 + 1</t>
+  </si>
+  <si>
+    <t>4,35 + 4,36 + 0,99 + 1</t>
+  </si>
+  <si>
+    <t>4,35 + 4,36 + 0,99 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>4,35 + 4,36 + 0,99 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,5 + 4,1 + 0,88 + 3,26 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,5 + 4,1 + 0,88 + 3,26 + 1</t>
+  </si>
+  <si>
+    <t>3,5 + 4,1 + 0,88 + 1</t>
+  </si>
+  <si>
+    <t>3,5 + 1</t>
+  </si>
+  <si>
+    <t>0,48 + 2,37 + 1</t>
+  </si>
+  <si>
+    <t>5,61 + 0,9 + 1</t>
+  </si>
+  <si>
+    <t>1,59 + 4,97 + 1,67 + 1</t>
+  </si>
+  <si>
+    <t>1,59 + 1</t>
+  </si>
+  <si>
+    <t>0,43 + 5,5 + 2,01 + 3,2 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>0,43 + 5,5 + 2,01 + 3,2 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>0,43 + 5,5 + 2,01 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>0,43 + 5,5 + 2,01 + 1</t>
+  </si>
+  <si>
+    <t>5,03 + 1,93 + 3,2 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>5,03 + 1,93 + 3,2 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,03 + 1,93 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,03 + 1,93 + 1</t>
+  </si>
+  <si>
+    <t>5,07 + 4,09 + 3,2 + 3,17 + 1</t>
+  </si>
+  <si>
+    <t>5,07 + 4,09 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,07 + 4,09 + 1</t>
+  </si>
+  <si>
+    <t>5,07 + 4,09 + 3,2 + 3,17 + 1,23 + 5,5 + 1,16 + 1</t>
+  </si>
+  <si>
+    <t>4,7 + 3,17 + 3,32 + 1,35 + 5,56 + 1,2 + 1</t>
+  </si>
+  <si>
+    <t>4,7 + 3,17 + 3,32 + 1</t>
+  </si>
+  <si>
+    <t>4,7 + 3,17 + 1</t>
+  </si>
+  <si>
+    <t>4,7 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,04 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,04 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,04 + 3,2 + 3,21 + 1</t>
+  </si>
+  <si>
+    <t>5,01 + 4,04 + 3,2 + 3,21 + 1,37 + 5,57 + 1,24 + 1</t>
+  </si>
+  <si>
+    <t>0,51 + 2,08 + 1</t>
+  </si>
+  <si>
+    <t>5,7 + 1</t>
+  </si>
+  <si>
+    <t>5,7 + 3,01 + 0,99 + 3,2 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>5,7 + 3,01 + 0,99 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>5,7 + 3,01 + 0,99 + 1</t>
+  </si>
+  <si>
+    <t>3,51 + 4,1 + 4,15 + 3,24 + 1</t>
+  </si>
+  <si>
+    <t>3,51 + 4,1 + 4,15 + 1</t>
+  </si>
+  <si>
+    <t>3,51 + 4,1 + 1</t>
+  </si>
+  <si>
+    <t>3,51 + 1</t>
+  </si>
+  <si>
+    <t>1,59 + 4,97 + 3,43 + 1</t>
+  </si>
+  <si>
+    <t>КШ Б2.1</t>
+  </si>
+  <si>
+    <t>КШ Б2.2</t>
+  </si>
+  <si>
+    <t>КШ Б2.3</t>
+  </si>
+  <si>
+    <t>КШ Б2.4</t>
+  </si>
+  <si>
+    <t>КШ Б2.5</t>
+  </si>
+  <si>
+    <t>КШ Б2.6</t>
+  </si>
+  <si>
+    <t>КШ Б2.7</t>
+  </si>
+  <si>
+    <t>КШ Б2.8</t>
+  </si>
+  <si>
+    <t>КШ Б2.9</t>
+  </si>
+  <si>
+    <t>КШ Б2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина м. </t>
+  </si>
+  <si>
+    <t>Здание А</t>
+  </si>
+  <si>
+    <t>Здание Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -673,6 +1260,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,11 +1593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,1260 +1607,2742 @@
     <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="53.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>385</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
+      <c r="K1" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>223</v>
+      </c>
+      <c r="D2" s="6">
+        <f>4.4 + 3.28 + 3.2</f>
+        <v>10.879999999999999</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3.49</v>
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="2">
+        <f>3.49 + 1</f>
+        <v>4.49</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="2">
+        <f>3.49 + 1</f>
+        <v>4.49</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="2">
+        <f>5.02 + 2.01 + 3.2 + 3.2 + 3.24 + 1</f>
+        <v>17.670000000000002</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T2" s="2">
+        <f>0.43 + 5.5 + 2.01 + 3.2 + 3.2 + 3.24 + 1</f>
+        <v>18.579999999999998</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>222</v>
+      </c>
+      <c r="D3" s="6">
+        <f>4.4 + 3.28</f>
+        <v>7.68</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="H3" s="2">
+        <f>3.49 + 3.24 + 1</f>
+        <v>7.73</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="2">
+        <f>3.49 + 3.24 + 1</f>
+        <v>7.73</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="2">
+        <f>5.02 + 2.01 + 3.2 + 3.2 + 1</f>
+        <v>14.43</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="R3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="2">
+        <f>0.43 + 5.5 + 2.01 + 3.2 + 3.2 + 1</f>
+        <v>15.34</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="6">
+        <f>4.4</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="H4" s="2">
+        <f>3.49 + 3.24 + 3.2 + 1</f>
+        <v>10.93</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="2">
+        <f>3.49 + 3.24 + 3.2 + 1</f>
+        <v>10.93</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P4" s="2">
+        <f>5.02 + 2.01 + 3.2 + 1</f>
+        <v>11.23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="R4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="T4" s="2">
+        <f>0.43 + 5.5 + 2.01 + 3.2 + 1</f>
+        <v>12.14</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="D5" s="7">
+        <f>4.4 + 3.28 + 3.2 + 1.24 + 9.35 + 1.28</f>
+        <v>22.75</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>182</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="2">
+        <f>3.49 + 3.24 + 3.2 + 1.8 + 6.12 + 1.58 + 3.2 + 1</f>
+        <v>23.63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P5" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="2">
+        <f>3.49 + 3.24 + 3.2 + 1.8 + 6.12 + 1.58 + 3.2 + 1</f>
+        <v>23.63</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P5" s="2">
+        <f>5.02 + 2.01 + 1</f>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="T5" s="2">
+        <f>0.43 + 5.5 + 2.01 + 1</f>
+        <v>8.94</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="D6" s="7">
+        <f>4.4 + 3.28 + 3.2 + 1.24 + 9.35 + 1.28 + 3.2</f>
+        <v>25.95</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>181</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="2">
+        <f>3.49 + 3.24 + 3.2 + 1.8 + 6.12 + 1.58 + 1</f>
+        <v>20.43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P6" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="2">
+        <f>3.49 + 3.24 + 3.2 + 1.8 + 6.12 + 1.58 + 1</f>
+        <v>20.43</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="2">
+        <f>5.02 + 2.01 + 3.2 + 3.2 + 3.24 +  + 5.3 + 10.81 + 1.16 + 1</f>
+        <v>34.94</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="T6" s="2">
+        <f>5.03 + 1.93 + 3.2 + 3.2 + 3.24 + 1</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="6">
+        <f>4.38 + 3.37 + 3.2</f>
+        <v>10.95</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.34</v>
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="2">
+        <f>2.34 + 1</f>
+        <v>3.34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="2">
+        <f>2.34 + 1</f>
+        <v>3.34</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" s="2">
+        <f>5.06 + 1.93 + 3.2 + 3.2 + 3.24 + 1</f>
+        <v>17.630000000000003</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="R7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="T7" s="2">
+        <f>5.03 + 1.93 + 3.2 + 3.2 + 1</f>
+        <v>14.36</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="D8" s="6">
+        <f>4.38 + 3.37</f>
+        <v>7.75</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="2">
+        <f>2.34 + 3.2 + 1</f>
+        <v>6.54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="2">
+        <f>2.34 + 3.2 + 1</f>
+        <v>6.54</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P8" s="2">
+        <f>5.06 + 1.93 + 3.2 + 3.2 + 1</f>
+        <v>14.39</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="R8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="T8" s="2">
+        <f>5.03 + 1.93 + 3.2 + 1</f>
+        <v>11.16</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="6">
+        <f>4.38</f>
         <v>4.38</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>184</v>
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="2">
+        <f>2.34 + 3.2 + 3.24 + 1</f>
+        <v>9.7800000000000011</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="2">
+        <f>2.34 + 3.2 + 3.24 + 1</f>
+        <v>9.7800000000000011</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="P9" s="2">
+        <f>5.06 + 1.93 + 3.2 + 1</f>
+        <v>11.19</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="T9" s="2">
+        <f>5.03 + 1.93 + 1</f>
+        <v>7.96</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="D10" s="6">
+        <f>4.38 + 3.37 + 3.2 + 9.52 + 1.14</f>
+        <v>21.61</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="2">
+        <f>1.45 + 8.24 + 1</f>
+        <v>10.69</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="P10" s="1"/>
+      <c r="L10" s="2">
+        <f>1.45 + 8.24 + 1</f>
+        <v>10.69</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P10" s="2">
+        <f>5.06 + 1.93 + 1</f>
+        <v>7.9899999999999993</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="R10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="T10" s="2">
+        <f>5.07 + 4.09 + 3.2 + 3.17 + 1</f>
+        <v>16.53</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="D11" s="6">
+        <f>4.38 + 3.37 + 3.2 + 9.52 + 1.14 + 3.2</f>
+        <v>24.81</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>185</v>
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="2">
+        <f>1.45 + 8.24 + 3.2 + 1</f>
+        <v>13.89</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L11" s="2">
+        <f>1.45 + 8.24 + 3.2 + 1</f>
+        <v>13.89</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P11" s="2">
+        <f>5.06 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67 + 5.5 + 1</f>
+        <v>24.800000000000004</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="R11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="T11" s="2">
+        <f>5.07 + 4.09 + 3.2 + 1</f>
+        <v>13.36</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="D12" s="6">
+        <f>1.98 + 3.24 + 3.2</f>
+        <v>8.4200000000000017</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4.4800000000000004</v>
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H12" s="2">
+        <f>4.48 + 1</f>
+        <v>5.48</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="O12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P12" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L12" s="2">
+        <f>4.48 + 1</f>
+        <v>5.48</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P12" s="2">
+        <f>5.06 + 4.09 + 3.2 + 3.17 + 1</f>
+        <v>16.519999999999996</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="R12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="T12" s="2">
+        <f>5.07 + 4.09 + 1</f>
+        <v>10.16</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="D13" s="6">
+        <f>1.98 + 3.24</f>
+        <v>5.2200000000000006</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>188</v>
+        <v>37</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="2">
+        <f>4.48 + 3.24  + 1</f>
+        <v>8.7200000000000006</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="O13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="P13" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="2">
+        <f>4.48 + 3.24  + 1</f>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P13" s="2">
+        <f>5.06 + 4.09 + 3.2 + 1</f>
+        <v>13.349999999999998</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="T13" s="2">
+        <f>5.07 + 4.09 + 3.2 + 3.17 + 1.23 + 5.5 + 1.16 + 1</f>
+        <v>24.419999999999998</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="8">
+        <f>1.98</f>
         <v>1.98</v>
       </c>
-      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>189</v>
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="2">
+        <f>4.48 + 3.24 + 3.2 + 1</f>
+        <v>11.920000000000002</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P14" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="2">
+        <f>4.48 + 3.24 + 3.2 + 1</f>
+        <v>11.920000000000002</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P14" s="2">
+        <f>5.06 + 4.09 + 1</f>
+        <v>10.149999999999999</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="R14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="T14" s="2">
+        <f>4.7 + 3.17 + 3.32 + 1.35 + 5.56 + 1.2 + 1</f>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="D15" s="6">
+        <f>1.98 + 3.24 + 3.2 + 3.84 + 7.42</f>
+        <v>19.68</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="H15" s="2">
+        <f>4.48 + 3.24 + 3.2 + 1.19 + 9.53 + 1.23 + 3.2 + 1</f>
+        <v>27.07</v>
+      </c>
       <c r="I15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P15" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="2">
+        <f>4.48 + 3.24 + 3.2 + 1.19 + 9.53 + 1.23 + 3.2 + 1</f>
+        <v>27.07</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P15" s="2">
+        <f>5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 5.5 + 1.16 + 1</f>
+        <v>24.409999999999997</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="R15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="T15" s="2">
+        <f>4.7 + 3.17 + 3.32 + 1</f>
+        <v>12.19</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="D16" s="6">
+        <f>1.98 + 3.24 + 3.2 + 3.84 + 7.42 + 3.2</f>
+        <v>22.88</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>190</v>
+        <v>40</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="2">
+        <f>4.48 + 3.24 + 3.2 + 1.19 + 9.53 + 1.23 + 1</f>
+        <v>23.87</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="2">
+        <f>4.48 + 3.24 + 3.2 + 1.19 + 9.53 + 1.23 + 1</f>
+        <v>23.87</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P16" s="2">
+        <f>5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 5.5 + 1.16 + 3.24 + 1</f>
+        <v>27.65</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="R16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="T16" s="2">
+        <f>4.7 + 3.17 + 1</f>
+        <v>8.870000000000001</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="D17" s="6">
+        <f>0.42 + 2.65 + 3.25 + 3.2 + 2.51 + 3.68</f>
+        <v>15.709999999999999</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="2">
+        <f>4.43 + 1</f>
+        <v>5.43</v>
+      </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="2">
+        <f>4.43 + 1</f>
+        <v>5.43</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="2">
+        <f>4.07 + 3.17 + 3.32 + 1.35 + 5.65 + 1.2 + 1</f>
+        <v>19.760000000000002</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="R17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="T17" s="2">
+        <f>4.7 + 1</f>
+        <v>5.7</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+        <v>238</v>
+      </c>
+      <c r="D18" s="6">
+        <f>0.42 + 2.65 + 3.25 + 3.2</f>
+        <v>9.52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="2">
+        <f>4.43 + 3.24 + 1</f>
+        <v>8.67</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L18" s="2">
+        <f>4.43 + 3.24 + 1</f>
+        <v>8.67</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P18" s="2">
+        <f>4.07 + 3.17 + 3.32 + 1.35 + 5.65 + 1.2 + 3.24 + 1</f>
+        <v>23</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="R18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="T18" s="2">
+        <f>5.01 + 4.04 + 1</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="D19" s="6">
+        <f>0.42 + 2.65 + 3.25</f>
+        <v>6.32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="2">
+        <f>4.43 + 3.24 + 3.2 + 1</f>
+        <v>11.870000000000001</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="2">
+        <f>4.43 + 3.24 + 3.2 + 1</f>
+        <v>11.870000000000001</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P19" s="2">
+        <f>4.07 + 3.17 + 3.32 + 1</f>
+        <v>11.56</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="R19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="T19" s="2">
+        <f>5.01 + 4.04 + 3.2 + 1</f>
+        <v>13.25</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+        <v>240</v>
+      </c>
+      <c r="D20" s="6">
+        <f>0.42 + 2.65</f>
+        <v>3.07</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" s="2">
+        <f>4.43 + 3.24 + 3.2 + 1.31 + 9.71 + 1.22 + 3.2 + 1</f>
+        <v>27.31</v>
+      </c>
       <c r="I20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" s="2">
+        <f>4.43 + 3.24 + 3.2 + 1.31 + 9.71 + 1.22 + 3.2 + 1</f>
+        <v>27.31</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P20" s="2">
+        <f>4.07 + 3.17 + 1</f>
+        <v>8.24</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="R20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="T20" s="2">
+        <f>5.01 + 4.04 + 3.2 + 3.21 + 1</f>
+        <v>16.46</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="6">
+        <f>3.26</f>
         <v>3.26</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="2">
+        <f>4.43 + 3.24 + 3.2 + 1.31 + 9.71 + 1.22 + 1</f>
+        <v>24.11</v>
+      </c>
       <c r="I21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P21" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="2">
+        <f>4.43 + 3.24 + 3.2 + 1.31 + 9.71 + 1.22 + 1</f>
+        <v>24.11</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P21" s="2">
+        <f>4.07 + 1</f>
+        <v>5.07</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="R21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="T21" s="2">
+        <f>5.01 + 4.04 + 3.2 + 3.21 + 1.37 + 5.57 + 1.24 + 1</f>
+        <v>24.64</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="6">
+        <f>3.24</f>
         <v>3.24</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="2">
+        <f>2.05 + 1</f>
+        <v>3.05</v>
+      </c>
       <c r="I22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="O22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="2">
+        <f>2.05 + 1</f>
+        <v>3.05</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P22" s="2">
+        <f>5.01 + 4.03 + 1</f>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="R22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="T22" s="2">
+        <f>3.36 + 3.27 + 3.21 + 3.2 + 1</f>
+        <v>14.04</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="D23" s="6">
+        <f>3.24 + 3.71 + 1.52</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="2">
+        <f>2.05 + 3.23 + 1</f>
+        <v>6.2799999999999994</v>
+      </c>
       <c r="I23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="2">
+        <f>2.05 + 3.23 + 1</f>
+        <v>6.2799999999999994</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P23" s="2">
+        <f>5.01 + 4.03 + 3.2 + 1</f>
+        <v>13.239999999999998</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="R23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="T23" s="2">
+        <f>3.36 + 3.27 + 3.21 + 1</f>
+        <v>10.84</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="6">
+        <f>3.24 + 3.71 + 1.52 + 3.2</f>
+        <v>11.670000000000002</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="2">
+        <f>2.05 + 3.23 + 3.2 + 1</f>
+        <v>9.48</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="I24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="L24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="2">
+        <f>2.05 + 3.23 + 3.2 + 1</f>
+        <v>9.48</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P24" s="2">
+        <f>5.01 + 4.03 + 3.2 + 3.21 + 1</f>
+        <v>16.45</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="R24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="T24" s="2">
+        <f>3.36 + 3.27 + 1</f>
+        <v>7.63</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>245</v>
+      </c>
+      <c r="D25" s="6">
+        <f>3.24 + 3.71 + 1.52 + 3.2 + 3.24</f>
+        <v>14.910000000000002</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="2">
+        <f>2.05 + 3.23 + 3.2 + 3.78 + 7.55 + 3.2 + 1</f>
+        <v>24.009999999999998</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="L25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P25" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" s="2">
+        <f>2.05 + 3.23 + 3.2 + 3.78 + 7.55 + 3.2 + 1</f>
+        <v>24.009999999999998</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P25" s="2">
+        <f>5.01 + 4.03 + 3.2 + 3.21 + 1.37 + 5.57 + 1.24 + 3.21 + 1</f>
+        <v>27.84</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="R25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="T25" s="2">
+        <f>3.36 + 1</f>
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="6">
+        <f>3.24 + 3.71 + 1.52 + 3.2 + 3.24 + 3.38</f>
+        <v>18.290000000000003</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="2">
+        <f>2.05 + 3.23 + 3.2 + 3.78 + 7.55 + 1</f>
+        <v>20.81</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="2">
+        <f>2.05 + 3.23 + 3.2 + 3.78 + 7.55 + 1</f>
+        <v>20.81</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P26" s="2">
+        <f>5.01 + 4.03 + 3.2 + 3.21 + 1.37 + 5.57 + 1.24 + 1</f>
+        <v>24.63</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="T26" s="2">
+        <f>0.51 + 2.08 + 1</f>
+        <v>3.59</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="9">
+        <f>5.82 + 0.8 + 0.5</f>
+        <v>7.12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="2">
+        <f>2.55 + 3.2 + 1.38 + 4.22 + 4.03 + 1.48 + 1</f>
+        <v>17.86</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L27" s="2">
+        <f>2.55 + 3.2 + 1.38 + 4.22 + 4.03 + 1.48 + 1</f>
+        <v>17.86</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P27" s="2">
+        <f>3.36 + 3.27 + 3.21 + 3.2 + 1</f>
+        <v>14.04</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="T27" s="2">
+        <f>5.7 + 1</f>
+        <v>6.7</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="6">
+        <f>2.22</f>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="2">
+        <f>2.55 + 3.2 + 1.38 + 4.22 + 4.03 + 1.48 + 3.2 + 1</f>
+        <v>21.06</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" s="2">
+        <f>2.55 + 3.2 + 1.38 + 4.22 + 4.03 + 1.48 + 3.2 + 1</f>
+        <v>21.06</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P28" s="2">
+        <f>3.36 + 3.27 + 3.21 + 1</f>
+        <v>10.84</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="T28" s="2">
+        <f>5.7 + 3.01 + 0.99 + 3.2 + 3.24 + 1</f>
+        <v>17.14</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="6">
+        <f>2.22 + 2.25</f>
+        <v>4.4700000000000006</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="2">
+        <f>2.55 + 3.2 + 1.38 + 4.22 + 1</f>
+        <v>12.35</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="2">
+        <f>2.55 + 3.2 + 1.38 + 4.22 + 1</f>
+        <v>12.35</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="P29" s="2">
+        <f>3.36 + 3.27 + 1</f>
+        <v>7.63</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="T29" s="2">
+        <f>5.7 + 3.01 + 0.99 + 3.2 + 1</f>
+        <v>13.900000000000002</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="6">
+        <f>2.05 + 3.4</f>
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="2">
+        <f>2.55 + 3.2 + 1</f>
+        <v>6.75</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" s="2">
+        <f>2.55 + 3.2 + 1</f>
+        <v>6.75</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P30" s="2">
+        <f>3.36 + 1</f>
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="T30" s="2">
+        <f>5.7 + 3.01 + 0.99 + 1</f>
+        <v>10.700000000000001</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="6">
+        <f>2.05</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="2">
+        <f>2.55 + 1</f>
+        <v>3.55</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L31" s="2">
+        <f>2.55 + 1</f>
+        <v>3.55</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P31" s="2">
+        <f>3.36 + 3.27 + 3.21 + 3.2 + 1.56 + 5.57 + 6.31 + 1.55 + 1.7 + 1.7 + 1</f>
+        <v>32.43</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="T31" s="2">
+        <f>3.51 + 4.1 + 4.15 + 3.24 + 1</f>
+        <v>16</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" s="2">
+        <f>3.33 + 3.77 + 1.36 + 3.25 + 3.2 + 1.72 + 3.9 + 1</f>
+        <v>21.529999999999998</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="I26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="O26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="R26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="O28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="I29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="O30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="R30" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="I31" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="L31" s="1" t="s">
+      <c r="K32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="2">
+        <f>3.33 + 3.77 + 1.36 + 3.25 + 3.2 + 1.72 + 3.9 + 1</f>
+        <v>21.529999999999998</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="R31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
+      <c r="O32" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="P32" s="2">
+        <f>0.52 + 2.08 + 1</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="T32" s="2">
+        <f>3.51 + 4.1 + 4.15 + 1</f>
+        <v>12.76</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="I32" s="1" t="s">
+      <c r="G33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="2">
+        <f>3.33 + 3.77 + 1.36 + 3.25 + 3.2 + 1</f>
+        <v>15.91</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="L32" s="1" t="s">
+      <c r="K33" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" s="2">
+        <f>3.33 + 3.77 + 1.36 + 3.25 + 3.2 + 1</f>
+        <v>15.91</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="O32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
+      <c r="O33" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P33" s="2">
+        <f>4.35 + 1</f>
+        <v>5.35</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="T33" s="2">
+        <f>3.51 + 4.1 + 1</f>
+        <v>8.61</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="I33" s="1" t="s">
+      <c r="G34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="2">
+        <f>3.33 + 3.77 + 1.36 + 3.25 + 1</f>
+        <v>12.709999999999999</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="L33" s="1" t="s">
+      <c r="K34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="2">
+        <f>3.33 + 3.77 + 1.36 + 3.25 + 1</f>
+        <v>12.709999999999999</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="O33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
+      <c r="O34" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P34" s="2">
+        <f>4.35 + 4.36 + 0.99 + 1</f>
+        <v>10.700000000000001</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="T34" s="2">
+        <f>3.51 + 1</f>
+        <v>4.51</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="I34" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="2">
+        <f>3.33 + 3.77 + 1.36 + 1</f>
+        <v>9.4599999999999991</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="L34" s="1" t="s">
+      <c r="K35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="2">
+        <f>3.33 + 3.77 + 1.36 + 1</f>
+        <v>9.4599999999999991</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="O34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
+      <c r="O35" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P35" s="2">
+        <f>4.35 + 4.36 + 0.99 + 3.2 + 1</f>
+        <v>13.900000000000002</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="T35" s="2">
+        <f>0.48 + 2.37 + 1</f>
+        <v>3.85</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="I35" s="1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" s="2">
+        <f>3.33 + 1</f>
+        <v>4.33</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="L35" s="1" t="s">
+      <c r="K36" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" s="2">
+        <f>3.33 + 1</f>
+        <v>4.33</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="O35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="R35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
+      <c r="O36" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P36" s="2">
+        <f>4.35 + 4.36 + 0.99 + 3.2 + 3.24 + 1</f>
+        <v>17.14</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="T36" s="2">
+        <f>5.61 + 0.9 + 1</f>
+        <v>7.5100000000000007</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="G37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H37" s="2">
+        <f>3.34 + 1</f>
+        <v>4.34</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="L36" s="1" t="s">
+      <c r="K37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L37" s="2">
+        <f>3.34 + 1</f>
+        <v>4.34</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="O36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="R36" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
+      <c r="O37" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P37" s="2">
+        <f>3.5 + 4.1 + 0.88 + 3.26 + 3.24 + 1</f>
+        <v>15.98</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="T37" s="2">
+        <f>1.59 + 4.97 + 3.43 + 1</f>
+        <v>10.99</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1" t="s">
+      <c r="G38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H38" s="2">
+        <f>3.34 + 3.77 + 1.45 + 1</f>
+        <v>9.5599999999999987</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="L37" s="1" t="s">
+      <c r="K38" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="2">
+        <f>3.34 + 3.77 + 1.45 + 1</f>
+        <v>9.5599999999999987</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
+      <c r="O38" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P38" s="2">
+        <f>3.5 + 4.1 + 0.88 + 3.26 + 1</f>
+        <v>12.74</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="T38" s="2">
+        <f>1.59 + 1</f>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1" t="s">
+      <c r="G39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="2">
+        <f>3.34 + 3.77 + 1.45 + 3.2 + 1</f>
+        <v>12.759999999999998</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="L38" s="1" t="s">
+      <c r="K39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="2">
+        <f>3.34 + 3.77 + 1.45 + 3.2 + 1</f>
+        <v>12.759999999999998</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
+      <c r="O39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P39" s="2">
+        <f>3.5 + 4.1 + 0.88 + 1</f>
+        <v>9.48</v>
+      </c>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="I39" s="1" t="s">
+      <c r="G40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="2">
+        <f>3.34 + 3.77 + 1.45 + 3.2 + 3.24 + 1</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="L39" s="1" t="s">
+      <c r="K40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L40" s="2">
+        <f>3.34 + 3.77 + 1.45 + 3.2 + 3.24 + 1</f>
+        <v>15.999999999999998</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
+      <c r="O40" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P40" s="2">
+        <f>3.5 + 1</f>
+        <v>4.5</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="I40" s="1" t="s">
+      <c r="G41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H41" s="2">
+        <f>3.34 + 3.77 + 1.45 + 3.2 + 3.24 + 3.38 + 1</f>
+        <v>19.38</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="L40" s="1" t="s">
+      <c r="K41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" s="2">
+        <f>3.34 + 3.77 + 1.45 + 3.2 + 3.24 + 3.38 + 1</f>
+        <v>19.38</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-      <c r="F41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M41" s="1"/>
+      <c r="O41" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P41" s="2">
+        <f>0.48 + 2.37 + 1</f>
+        <v>3.85</v>
+      </c>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="M42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P42" s="2">
+        <f>5.61 + 0.9 + 1</f>
+        <v>7.5100000000000007</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="M43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P43" s="2">
+        <f>1.59 + 4.97 + 1.67 + 1</f>
+        <v>9.23</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="M44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="P44" s="2">
+        <f>1.59 + 1</f>
+        <v>2.59</v>
+      </c>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>386</v>
+      </c>
+      <c r="L45">
+        <f>SUM(L2:L41) + SUM(H2:H41) + SUM(D2:D31)</f>
+        <v>1349.2700000000002</v>
+      </c>
+      <c r="S45" t="s">
+        <v>387</v>
+      </c>
+      <c r="T45">
+        <f>SUM(P2:P44) + SUM(T2:T38)</f>
+        <v>1037.81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5978CD40-D85E-4F68-A78D-C86D99EE8CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="2280" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="407">
   <si>
     <t>А1.1</t>
   </si>
@@ -737,18 +738,6 @@
     <t>1,98 + 3,24 + 3,2 + 3,84 + 7,42 + 3,2 + 1</t>
   </si>
   <si>
-    <t>0,42 + 2,65 + 3,25 + 3,2 + 2,51 + 3,68 + 1</t>
-  </si>
-  <si>
-    <t>0,42 + 2,65 + 3,25 + 3,2 + 1</t>
-  </si>
-  <si>
-    <t>0,42 + 2,65 + 3,25 + 1</t>
-  </si>
-  <si>
-    <t>0,42 + 2,65 + 1</t>
-  </si>
-  <si>
     <t>3,26 + 1</t>
   </si>
   <si>
@@ -1188,12 +1177,81 @@
   </si>
   <si>
     <t>Здание Б</t>
+  </si>
+  <si>
+    <t>0,42 + 2,26 + 3,25 + 3,2 + 2,51 + 3,68 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,26 + 3,25 + 3,2 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,26 + 3,25 + 1</t>
+  </si>
+  <si>
+    <t>0,42 + 2,26 + 1</t>
+  </si>
+  <si>
+    <t>0,62 + 1,52 + 3,2 + 3,24 + 3,38</t>
+  </si>
+  <si>
+    <t>0,62 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>3,42 + 3,7 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>1,97 + 3,24 + 3,2 + 3,2 + 1,14 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>4,38 + 3,27 + 3,2 + 1,27 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>4,4 + 3,27 + 3,2 + 1,24 + 9,35 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>6,4 + 0,8 + 4,17 + 4,38 + 3,27 + 3,2 + 1,27 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>1,37 + 17,27 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>3,49 + 3,24 + 3,2 + 1,8 + 2,9</t>
+  </si>
+  <si>
+    <t>1,58 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>2,55 + 3,2 + 1,38 + 1,72 + 3,2 + 3,25 + 1,36 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>3,33 + 3,77 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>3,34 + 3,77 + 1,45 + 3,2 + 3,24  + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>2,3 + 0,4 + 0,7</t>
+  </si>
+  <si>
+    <t>Между этажом</t>
+  </si>
+  <si>
+    <t>толщина стены</t>
+  </si>
+  <si>
+    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,52 + 9,71 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
+  </si>
+  <si>
+    <t>4,43 + 3,24 + 3,2 + 1,31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1219,7 +1277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1242,11 +1300,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1270,15 +1339,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,11 +1661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,9 +1684,10 @@
     <col min="19" max="19" width="44.28515625" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="23.28515625" customWidth="1"/>
+    <col min="23" max="23" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -1626,7 +1695,7 @@
         <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>146</v>
@@ -1638,7 +1707,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>146</v>
@@ -1650,7 +1719,7 @@
         <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>146</v>
@@ -1662,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>146</v>
@@ -1674,15 +1743,31 @@
         <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -1723,7 +1808,7 @@
         <v>4.49</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>106</v>
@@ -1736,22 +1821,32 @@
         <v>17.670000000000002</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2">
         <f>0.43 + 5.5 + 2.01 + 3.2 + 3.2 + 3.24 + 1</f>
         <v>18.579999999999998</v>
       </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Z2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>149</v>
       </c>
@@ -1792,7 +1887,7 @@
         <v>7.73</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>107</v>
@@ -1805,22 +1900,32 @@
         <v>14.43</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T3" s="2">
         <f>0.43 + 5.5 + 2.01 + 3.2 + 3.2 + 1</f>
         <v>15.34</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Z3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -1861,7 +1966,7 @@
         <v>10.93</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>108</v>
@@ -1874,22 +1979,32 @@
         <v>11.23</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="T4" s="2">
         <f>0.43 + 5.5 + 2.01 + 3.2 + 1</f>
         <v>12.14</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Z4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -1930,7 +2045,7 @@
         <v>23.63</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>109</v>
@@ -1943,22 +2058,32 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="T5" s="2">
         <f>0.43 + 5.5 + 2.01 + 1</f>
         <v>8.94</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -1999,35 +2124,45 @@
         <v>20.43</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P6" s="2">
         <f>5.02 + 2.01 + 3.2 + 3.2 + 3.24 +  + 5.3 + 10.81 + 1.16 + 1</f>
         <v>34.94</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="T6" s="2">
         <f>5.03 + 1.93 + 3.2 + 3.2 + 3.24 + 1</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Z6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>150</v>
       </c>
@@ -2068,35 +2203,45 @@
         <v>3.34</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>111</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P7" s="2">
         <f>5.06 + 1.93 + 3.2 + 3.2 + 3.24 + 1</f>
         <v>17.630000000000003</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="T7" s="2">
         <f>5.03 + 1.93 + 3.2 + 3.2 + 1</f>
         <v>14.36</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Z7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
@@ -2117,7 +2262,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H8" s="2">
         <f>2.34 + 3.2 + 1</f>
@@ -2137,35 +2282,45 @@
         <v>6.54</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P8" s="2">
         <f>5.06 + 1.93 + 3.2 + 3.2 + 1</f>
         <v>14.39</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="T8" s="2">
         <f>5.03 + 1.93 + 3.2 + 1</f>
         <v>11.16</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Z8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -2186,7 +2341,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H9" s="2">
         <f>2.34 + 3.2 + 3.24 + 1</f>
@@ -2206,35 +2361,45 @@
         <v>9.7800000000000011</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P9" s="2">
         <f>5.06 + 1.93 + 3.2 + 1</f>
         <v>11.19</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="T9" s="2">
         <f>5.03 + 1.93 + 1</f>
         <v>7.96</v>
       </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V9" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Z9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -2255,7 +2420,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H10" s="2">
         <f>1.45 + 8.24 + 1</f>
@@ -2275,35 +2440,45 @@
         <v>10.69</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>114</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P10" s="2">
         <f>5.06 + 1.93 + 1</f>
         <v>7.9899999999999993</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="T10" s="2">
         <f>5.07 + 4.09 + 3.2 + 3.17 + 1</f>
         <v>16.53</v>
       </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V10" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -2324,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H11" s="2">
         <f>1.45 + 8.24 + 3.2 + 1</f>
@@ -2344,35 +2519,45 @@
         <v>13.89</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>115</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P11" s="2">
         <f>5.06 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67 + 5.5 + 1</f>
         <v>24.800000000000004</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="T11" s="2">
         <f>5.07 + 4.09 + 3.2 + 1</f>
         <v>13.36</v>
       </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V11" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>151</v>
       </c>
@@ -2393,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H12" s="2">
         <f>4.48 + 1</f>
@@ -2413,35 +2598,45 @@
         <v>5.48</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>116</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P12" s="2">
         <f>5.06 + 4.09 + 3.2 + 3.17 + 1</f>
         <v>16.519999999999996</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="T12" s="2">
         <f>5.07 + 4.09 + 1</f>
         <v>10.16</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Z12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
@@ -2482,35 +2677,45 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>117</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P13" s="2">
         <f>5.06 + 4.09 + 3.2 + 1</f>
         <v>13.349999999999998</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="T13" s="2">
         <f>5.07 + 4.09 + 3.2 + 3.17 + 1.23 + 5.5 + 1.16 + 1</f>
         <v>24.419999999999998</v>
       </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Z13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2551,35 +2756,45 @@
         <v>11.920000000000002</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>118</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P14" s="2">
         <f>5.06 + 4.09 + 1</f>
         <v>10.149999999999999</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="T14" s="2">
         <f>4.7 + 3.17 + 3.32 + 1.35 + 5.56 + 1.2 + 1</f>
         <v>20.299999999999997</v>
       </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>151</v>
       </c>
@@ -2620,35 +2835,43 @@
         <v>27.07</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P15" s="2">
         <f>5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 5.5 + 1.16 + 1</f>
         <v>24.409999999999997</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T15" s="2">
         <f>4.7 + 3.17 + 3.32 + 1</f>
         <v>12.19</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Z15" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -2689,35 +2912,45 @@
         <v>23.87</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P16" s="2">
         <f>5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 5.5 + 1.16 + 3.24 + 1</f>
         <v>27.65</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="T16" s="2">
         <f>4.7 + 3.17 + 1</f>
         <v>8.870000000000001</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Z16" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -2725,7 +2958,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="D17" s="6">
         <f>0.42 + 2.65 + 3.25 + 3.2 + 2.51 + 3.68</f>
@@ -2758,35 +2991,45 @@
         <v>5.43</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>121</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P17" s="2">
         <f>4.07 + 3.17 + 3.32 + 1.35 + 5.65 + 1.2 + 1</f>
         <v>19.760000000000002</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="T17" s="2">
         <f>4.7 + 1</f>
         <v>5.7</v>
       </c>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Z17" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -2794,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="D18" s="6">
         <f>0.42 + 2.65 + 3.25 + 3.2</f>
@@ -2827,35 +3070,43 @@
         <v>8.67</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>122</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P18" s="2">
         <f>4.07 + 3.17 + 3.32 + 1.35 + 5.65 + 1.2 + 3.24 + 1</f>
         <v>23</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="T18" s="2">
         <f>5.01 + 4.04 + 1</f>
         <v>10.050000000000001</v>
       </c>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Z18" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -2863,7 +3114,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="D19" s="6">
         <f>0.42 + 2.65 + 3.25</f>
@@ -2896,35 +3147,43 @@
         <v>11.870000000000001</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P19" s="2">
         <f>4.07 + 3.17 + 3.32 + 1</f>
         <v>11.56</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T19" s="2">
         <f>5.01 + 4.04 + 3.2 + 1</f>
         <v>13.25</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -2932,7 +3191,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="D20" s="6">
         <f>0.42 + 2.65</f>
@@ -2965,35 +3224,43 @@
         <v>27.31</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>124</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P20" s="2">
         <f>4.07 + 3.17 + 1</f>
         <v>8.24</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="T20" s="2">
         <f>5.01 + 4.04 + 3.2 + 3.21 + 1</f>
         <v>16.46</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Z20" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>152</v>
       </c>
@@ -3001,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D21" s="6">
         <f>3.26</f>
@@ -3034,35 +3301,43 @@
         <v>24.11</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>125</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P21" s="2">
         <f>4.07 + 1</f>
         <v>5.07</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="T21" s="2">
         <f>5.01 + 4.04 + 3.2 + 3.21 + 1.37 + 5.57 + 1.24 + 1</f>
         <v>24.64</v>
       </c>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Z21" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>153</v>
       </c>
@@ -3070,7 +3345,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D22" s="6">
         <f>3.24</f>
@@ -3103,35 +3378,38 @@
         <v>3.05</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>126</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P22" s="2">
         <f>5.01 + 4.03 + 1</f>
         <v>10.039999999999999</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="T22" s="2">
         <f>3.36 + 3.27 + 3.21 + 3.2 + 1</f>
         <v>14.04</v>
       </c>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
@@ -3139,7 +3417,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D23" s="6">
         <f>3.24 + 3.71 + 1.52</f>
@@ -3172,35 +3450,38 @@
         <v>6.2799999999999994</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>127</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P23" s="2">
         <f>5.01 + 4.03 + 3.2 + 1</f>
         <v>13.239999999999998</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="T23" s="2">
         <f>3.36 + 3.27 + 3.21 + 1</f>
         <v>10.84</v>
       </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
@@ -3208,7 +3489,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D24" s="6">
         <f>3.24 + 3.71 + 1.52 + 3.2</f>
@@ -3241,35 +3522,38 @@
         <v>9.48</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>128</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P24" s="2">
         <f>5.01 + 4.03 + 3.2 + 3.21 + 1</f>
         <v>16.45</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="T24" s="2">
         <f>3.36 + 3.27 + 1</f>
         <v>7.63</v>
       </c>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -3277,7 +3561,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D25" s="6">
         <f>3.24 + 3.71 + 1.52 + 3.2 + 3.24</f>
@@ -3310,35 +3594,38 @@
         <v>24.009999999999998</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>129</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P25" s="2">
         <f>5.01 + 4.03 + 3.2 + 3.21 + 1.37 + 5.57 + 1.24 + 3.21 + 1</f>
         <v>27.84</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="T25" s="2">
         <f>3.36 + 1</f>
         <v>4.3599999999999994</v>
       </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>153</v>
       </c>
@@ -3346,7 +3633,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D26" s="6">
         <f>3.24 + 3.71 + 1.52 + 3.2 + 3.24 + 3.38</f>
@@ -3379,45 +3666,49 @@
         <v>20.81</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>130</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P26" s="2">
         <f>5.01 + 4.03 + 3.2 + 3.21 + 1.37 + 5.57 + 1.24 + 1</f>
         <v>24.63</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="T26" s="2">
         <f>0.51 + 2.08 + 1</f>
         <v>3.59</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V26" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="W26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C27" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="6">
         <f>5.82 + 0.8 + 0.5</f>
         <v>7.12</v>
       </c>
@@ -3448,35 +3739,39 @@
         <v>17.86</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>131</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P27" s="2">
         <f>3.36 + 3.27 + 3.21 + 3.2 + 1</f>
         <v>14.04</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="T27" s="2">
         <f>5.7 + 1</f>
         <v>6.7</v>
       </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V27" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="W27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>164</v>
       </c>
@@ -3484,7 +3779,7 @@
         <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D28" s="6">
         <f>2.22</f>
@@ -3517,35 +3812,33 @@
         <v>21.06</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>132</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P28" s="2">
         <f>3.36 + 3.27 + 3.21 + 1</f>
         <v>10.84</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="T28" s="2">
         <f>5.7 + 3.01 + 0.99 + 3.2 + 3.24 + 1</f>
         <v>17.14</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
@@ -3553,7 +3846,7 @@
         <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D29" s="6">
         <f>2.22 + 2.25</f>
@@ -3586,35 +3879,33 @@
         <v>12.35</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>133</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P29" s="2">
         <f>3.36 + 3.27 + 1</f>
         <v>7.63</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="T29" s="2">
         <f>5.7 + 3.01 + 0.99 + 3.2 + 1</f>
         <v>13.900000000000002</v>
       </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>163</v>
       </c>
@@ -3622,7 +3913,7 @@
         <v>160</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D30" s="6">
         <f>2.05 + 3.4</f>
@@ -3655,35 +3946,33 @@
         <v>6.75</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>134</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P30" s="2">
         <f>3.36 + 1</f>
         <v>4.3599999999999994</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="T30" s="2">
         <f>5.7 + 3.01 + 0.99 + 1</f>
         <v>10.700000000000001</v>
       </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>163</v>
       </c>
@@ -3724,35 +4013,33 @@
         <v>3.55</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>135</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P31" s="2">
         <f>3.36 + 3.27 + 3.21 + 3.2 + 1.56 + 5.57 + 6.31 + 1.55 + 1.7 + 1.7 + 1</f>
         <v>32.43</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="T31" s="2">
         <f>3.51 + 4.1 + 4.15 + 3.24 + 1</f>
         <v>16</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E32" s="1" t="s">
         <v>168</v>
       </c>
@@ -3780,35 +4067,33 @@
         <v>21.529999999999998</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>136</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P32" s="2">
         <f>0.52 + 2.08 + 1</f>
         <v>3.6</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="T32" s="2">
         <f>3.51 + 4.1 + 4.15 + 1</f>
         <v>12.76</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>168</v>
       </c>
@@ -3836,35 +4121,33 @@
         <v>15.91</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>137</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="P33" s="2">
         <f>4.35 + 1</f>
         <v>5.35</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="T33" s="2">
         <f>3.51 + 4.1 + 1</f>
         <v>8.61</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>168</v>
       </c>
@@ -3892,35 +4175,33 @@
         <v>12.709999999999999</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>138</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P34" s="2">
         <f>4.35 + 4.36 + 0.99 + 1</f>
         <v>10.700000000000001</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="T34" s="2">
         <f>3.51 + 1</f>
         <v>4.51</v>
       </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>168</v>
       </c>
@@ -3948,35 +4229,33 @@
         <v>9.4599999999999991</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P35" s="2">
         <f>4.35 + 4.36 + 0.99 + 3.2 + 1</f>
         <v>13.900000000000002</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="T35" s="2">
         <f>0.48 + 2.37 + 1</f>
         <v>3.85</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>168</v>
       </c>
@@ -4004,35 +4283,33 @@
         <v>4.33</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>140</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P36" s="2">
         <f>4.35 + 4.36 + 0.99 + 3.2 + 3.24 + 1</f>
         <v>17.14</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="T36" s="2">
         <f>5.61 + 0.9 + 1</f>
         <v>7.5100000000000007</v>
       </c>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>169</v>
       </c>
@@ -4060,35 +4337,33 @@
         <v>4.34</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>141</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P37" s="2">
         <f>3.5 + 4.1 + 0.88 + 3.26 + 3.24 + 1</f>
         <v>15.98</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="T37" s="2">
         <f>1.59 + 4.97 + 3.43 + 1</f>
         <v>10.99</v>
       </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>169</v>
       </c>
@@ -4116,33 +4391,33 @@
         <v>9.5599999999999987</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>142</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P38" s="2">
         <f>3.5 + 4.1 + 0.88 + 3.26 + 1</f>
         <v>12.74</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T38" s="2">
         <f>1.59 + 1</f>
         <v>2.59</v>
       </c>
     </row>
-    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>169</v>
       </c>
@@ -4170,23 +4445,21 @@
         <v>12.759999999999998</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>143</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P39" s="2">
         <f>3.5 + 4.1 + 0.88 + 1</f>
         <v>9.48</v>
       </c>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>169</v>
       </c>
@@ -4214,23 +4487,21 @@
         <v>15.999999999999998</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>144</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P40" s="2">
         <f>3.5 + 1</f>
         <v>4.5</v>
       </c>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-    </row>
-    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>169</v>
       </c>
@@ -4258,91 +4529,373 @@
         <v>19.38</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>145</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P41" s="2">
         <f>0.48 + 2.37 + 1</f>
         <v>3.85</v>
       </c>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-    </row>
-    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M42" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P42" s="2">
         <f>5.61 + 0.9 + 1</f>
         <v>7.5100000000000007</v>
       </c>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M43" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P43" s="2">
         <f>1.59 + 4.97 + 1.67 + 1</f>
         <v>9.23</v>
       </c>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-    </row>
-    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M44" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P44" s="2">
         <f>1.59 + 1</f>
         <v>2.59</v>
       </c>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L45">
         <f>SUM(L2:L41) + SUM(H2:H41) + SUM(D2:D31)</f>
         <v>1349.2700000000002</v>
       </c>
       <c r="S45" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="T45">
         <f>SUM(P2:P44) + SUM(T2:T38)</f>
         <v>1037.81</v>
       </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="F47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="F48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="F49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="F50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="F51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="F52" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="F53" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="F54" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="F55" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="F56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="F57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="F58" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="F59" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="F60" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="F61" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="F62" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="F63" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="F64" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="F65" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="F66" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5978CD40-D85E-4F68-A78D-C86D99EE8CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="600" windowWidth="14400" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="424">
   <si>
     <t>А1.1</t>
   </si>
@@ -1191,67 +1190,118 @@
     <t>0,42 + 2,26 + 1</t>
   </si>
   <si>
-    <t>0,62 + 1,52 + 3,2 + 3,24 + 3,38</t>
-  </si>
-  <si>
-    <t>0,62 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>3,42 + 3,7 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>1,97 + 3,24 + 3,2 + 3,2 + 1,14 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>4,38 + 3,27 + 3,2 + 1,27 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>4,4 + 3,27 + 3,2 + 1,24 + 9,35 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>6,4 + 0,8 + 4,17 + 4,38 + 3,27 + 3,2 + 1,27 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>1,37 + 17,27 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>3,49 + 3,24 + 3,2 + 1,8 + 2,9</t>
-  </si>
-  <si>
-    <t>1,58 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>2,55 + 3,2 + 1,38 + 1,72 + 3,2 + 3,25 + 1,36 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>3,33 + 3,77 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>3,34 + 3,77 + 1,45 + 3,2 + 3,24  + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>2,3 + 0,4 + 0,7</t>
-  </si>
-  <si>
     <t>Между этажом</t>
   </si>
   <si>
-    <t>толщина стены</t>
-  </si>
-  <si>
-    <t>4,48 + 3,24 + 3,2 + 1,19 + 9,52 + 9,71 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9</t>
-  </si>
-  <si>
-    <t>4,43 + 3,24 + 3,2 + 1,31</t>
+    <t xml:space="preserve"> + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 3,42 + 3,7 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 0,62 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 1,97 + 3,24 + 3,2 + 3,2 + 1,14 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 4,38 + 3,27 + 3,2 + 1,27 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 4,4 + 3,27 + 3,2 + 1,24 + 9,35 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 6,4 + 0,8 + 4,17 + 4,38 + 3,27 + 3,2 + 1,27 + 9,51 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 1,37 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
+  </si>
+  <si>
+    <t>1 + 2,55 + 3,2 + 1,38 + 1,72 + 3,2 + 3,25 + 1,36 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,33 + 3,77 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,34 + 3,77 + 1,45 + 3,2 + 3,24  + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 4,48 + 3,24 + 3,2 + 1,19 + 9,52 + 9,71 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 4,43 + 3,24 + 3,2 + 1,31 + 9,71 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 2,05 + 3,23 + 3,2 + 3,78 + 10,06 + 3,2 + 8,23 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,49 + 3,24 + 3,2 + 1,8 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 1,58 + 6,11 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 2,55 + 3,2 + 1,38 + 1,72 + 3,2 + 3,25 + 1,36 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 + 0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,33 + 3,77 + 1,45 + 3,2 + 3,24 + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,34 + 3,77 + 1,45 + 3,2 + 3,24  + 3,38 + 5,55 + 23,46 + 3,2 + 7,55 + 10,06 + 3,2 + 8,23 + 6,11 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 4,48 + 3,24 + 3,2 + 1,19 + 9,52 + 9,71 + 10,06 + 3,2 + 8,23 + 6,11 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 4,43 + 3,24 + 3,2 + 1,31 + 9,71 + 10,06 + 3,2 + 8,23 + 6,11 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 2,05 + 3,23 + 3,2 + 3,78 + 10,06 + 3,2 + 8,23 + 6,11 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,49 + 3,24 + 3,2 + 1,8 + 0,66 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 1,45 + 6,11 +  0,7 + 0,4 + 2,3 + 0,66 + 2,9 + 1</t>
+  </si>
+  <si>
+    <t>1 + 2,01 + 3,2 + 3,2 + 3,24 + 5,3 + 10,81 + 14,77 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 5,06 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67 + 2,01 + 3,2 + 3,24 + 5,3 + 10,81 + 14,77 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 5,06 + 4,09 + 3,2 + 3,17 + 1,23 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67 + 2,01 + 3,2 + 3,24 + 5,3 + 10,81 + 14,77 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 4,7 + 3,17 + 3,32 + 1,35 + 0,74 + 5,06 + 4,09 + 3,2 + 3,17 + 1,23 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67 + 2,01 + 3,2 + 3,24 + 5,3 + 10,81 + 14,77 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 5,01 + 8,62 + 3,24 + 1,2 + 5,65 + 0,74 + 5,06 + 4,09 + 3,2 + 3,17 + 1,23 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67 + 2,01 + 3,2 + 3,24 + 5,3 + 10,81 + 14,77 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,36 + 3,27 + 3,21 + 3,2 + 1,56 + 5,57 + 6,31 + 6,48 + 1,59 + 4,97 + 3,43 + 0,9 + 5,61 + 0,75 + 2,09 + 2,37 + 0,48 + 3,5 + 4,1 + 2,57 + 4,36 + 4,35 + 0,52 + 3,89 + 3,36 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 0,52 + 3,89 + 3,36 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 0,48 + 3,5 + 4,1 + 2,57 + 4,36 + 4,35 + 0,52 + 3,89 + 3,36 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 0,75 + 2,09 + 2,37 + 0,48 + 3,5 + 4,1 + 2,57 + 4,36 + 4,35 + 0,52 + 3,89 + 3,36 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 1,59 + 4,97 + 3,43 + 1,67 + 0,9 + 5,61 + 0,75 + 2,09 + 2,37 + 0,48 + 3,5 + 4,1 + 2,57 + 4,36 + 4,35 + 0,52 + 3,89 + 3,36 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1315,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1347,6 +1397,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,11 +1715,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,8 +1737,9 @@
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="44.28515625" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" customWidth="1"/>
-    <col min="23" max="23" width="56.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" customWidth="1"/>
+    <col min="23" max="23" width="60.7109375" customWidth="1"/>
+    <col min="27" max="27" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,14 +1891,16 @@
       <c r="V2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>389</v>
+      <c r="W2" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Z2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AA2" s="1"/>
+      <c r="AA2" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +1979,9 @@
       <c r="Z3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AA3" s="1"/>
+      <c r="AA3" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,16 +2054,18 @@
         <v>151</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Z4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="AA4" s="1"/>
+      <c r="AA4" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -2073,17 +2134,19 @@
       <c r="V5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>392</v>
+      <c r="W5" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Z5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AA5" s="1"/>
+      <c r="AA5" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -2152,14 +2215,16 @@
       <c r="V6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>393</v>
+      <c r="W6" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Z6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,16 +2297,18 @@
         <v>162</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Z7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AA7" s="1"/>
+      <c r="AA7" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
@@ -2310,17 +2377,19 @@
       <c r="V8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="4" t="s">
         <v>396</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Z8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AA8" s="1"/>
+      <c r="AA8" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -2389,14 +2458,16 @@
       <c r="V9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>395</v>
+      <c r="W9" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Z9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AA9" s="1"/>
+      <c r="AA9" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2469,13 +2540,15 @@
         <v>167</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Z10" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,13 +2621,15 @@
         <v>168</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Z11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AA11" s="1"/>
+      <c r="AA11" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2627,7 +2702,7 @@
         <v>169</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Z12" s="3" t="s">
@@ -2636,7 +2711,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
@@ -2705,8 +2780,8 @@
       <c r="V13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>405</v>
+      <c r="W13" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Z13" s="3" t="s">
@@ -2715,7 +2790,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2784,8 +2859,8 @@
       <c r="V14" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>406</v>
+      <c r="W14" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Z14" s="3" t="s">
@@ -2794,7 +2869,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>151</v>
       </c>
@@ -2863,7 +2938,9 @@
       <c r="V15" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="4" t="s">
+        <v>403</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Z15" s="3" t="s">
         <v>374</v>
@@ -2871,7 +2948,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -2940,8 +3017,8 @@
       <c r="V16" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>397</v>
+      <c r="W16" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Z16" s="3" t="s">
@@ -2950,7 +3027,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -3019,8 +3096,8 @@
       <c r="V17" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>398</v>
+      <c r="W17" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Z17" s="3" t="s">
@@ -3029,7 +3106,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -3098,7 +3175,9 @@
       <c r="V18" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="10" t="s">
+        <v>406</v>
+      </c>
       <c r="X18" s="1"/>
       <c r="Z18" s="3" t="s">
         <v>377</v>
@@ -3106,7 +3185,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -3175,7 +3254,9 @@
       <c r="V19" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="10" t="s">
+        <v>407</v>
+      </c>
       <c r="X19" s="1"/>
       <c r="Z19" s="3" t="s">
         <v>378</v>
@@ -3183,7 +3264,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -3252,7 +3333,9 @@
       <c r="V20" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="X20" s="1"/>
       <c r="Z20" s="3" t="s">
         <v>379</v>
@@ -3260,7 +3343,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>152</v>
       </c>
@@ -3329,7 +3412,9 @@
       <c r="V21" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="W21" s="1"/>
+      <c r="W21" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="X21" s="1"/>
       <c r="Z21" s="3" t="s">
         <v>380</v>
@@ -3337,7 +3422,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>153</v>
       </c>
@@ -3406,10 +3491,12 @@
       <c r="V22" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="W22" s="1"/>
+      <c r="W22" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
@@ -3478,10 +3565,12 @@
       <c r="V23" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="10" t="s">
+        <v>411</v>
+      </c>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
@@ -3550,10 +3639,12 @@
       <c r="V24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="W24" s="1"/>
+      <c r="W24" s="4" t="s">
+        <v>412</v>
+      </c>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -3622,7 +3713,9 @@
       <c r="V25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="W25" s="1"/>
+      <c r="W25" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="X25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
@@ -3692,10 +3785,10 @@
         <v>3.59</v>
       </c>
       <c r="V26" s="11" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="W26" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -3764,12 +3857,7 @@
         <f>5.7 + 1</f>
         <v>6.7</v>
       </c>
-      <c r="V27" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="W27">
-        <v>0.2</v>
-      </c>
+      <c r="V27" s="11"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -4608,294 +4696,229 @@
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="F47" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="F48" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="F49" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="F50" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="F51" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="F52" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="F53" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="F54" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="F55" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="F56" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="F57" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="F58" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="F59" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="F60" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="F61" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="F62" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="F63" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="F64" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="F65" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="F66" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\vs\git\lab\sem4\curse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDDE118-611E-428C-884A-5308D0DD293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="600" windowWidth="14400" windowHeight="15600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1301,7 +1302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1365,7 +1366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1395,12 +1396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,11 +1712,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,7 +4178,7 @@
         <v>12.76</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>168</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>168</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>168</v>
       </c>
@@ -4343,7 +4340,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>168</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>7.5100000000000007</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>169</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
         <v>169</v>
       </c>
@@ -4505,7 +4502,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E39" s="1" t="s">
         <v>169</v>
       </c>
@@ -4547,7 +4544,7 @@
       </c>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E40" s="1" t="s">
         <v>169</v>
       </c>
@@ -4589,7 +4586,7 @@
       </c>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>169</v>
       </c>
@@ -4631,7 +4628,7 @@
       </c>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:20" x14ac:dyDescent="0.25">
       <c r="M42" s="2" t="s">
         <v>265</v>
       </c>
@@ -4647,7 +4644,7 @@
       </c>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:20" x14ac:dyDescent="0.25">
       <c r="M43" s="2" t="s">
         <v>266</v>
       </c>
@@ -4663,7 +4660,7 @@
       </c>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:20" x14ac:dyDescent="0.25">
       <c r="M44" s="2" t="s">
         <v>266</v>
       </c>
@@ -4679,7 +4676,7 @@
       </c>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:20" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>382</v>
       </c>
@@ -4695,230 +4692,65 @@
         <v>1037.81</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+    <row r="47" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="9"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sem4/curse/Трассировка.xlsx
+++ b/sem4/curse/Трассировка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\lab\sem4\curse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDDE118-611E-428C-884A-5308D0DD293A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953C933-71C0-4E2A-9E53-E14DCFFFBD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="433">
   <si>
     <t>А1.1</t>
   </si>
@@ -1191,12 +1191,6 @@
     <t>0,42 + 2,26 + 1</t>
   </si>
   <si>
-    <t>Между этажом</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + 2,3 + 0,4 + 1,7</t>
-  </si>
-  <si>
     <t>1 + 3,42 + 3,7 + 1,52 + 3,2 + 3,24 + 3,38 + 5,48 + 23,37 + 3,2 + 7,42 + 4,44 + 17,27 + 6,11 + 0,66 + 2,9 + 2,3 + 0,4 + 1,7</t>
   </si>
   <si>
@@ -1297,6 +1291,39 @@
   </si>
   <si>
     <t>1 + 1,59 + 4,97 + 3,43 + 1,67 + 0,9 + 5,61 + 0,75 + 2,09 + 2,37 + 0,48 + 3,5 + 4,1 + 2,57 + 4,36 + 4,35 + 0,52 + 3,89 + 3,36 + 2,3 + 0,4 + 0,7 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 0,43 + 5,5 + 2,01 + 3,2 + 3,2 + 3,24 + 5,3 + 24,55 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 5,03 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67  + 2,01 + 3,2 + 3,2 + 3,24 + 5,3 + 24,55 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 5,07 + 4,09 + 3,2 + 3,17 + 1,23 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67  + 2,01 + 3,2 + 3,2 + 3,24 + 5,3 + 24,55 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 4,7 + 3,17 + 3,32 + 1,35 + 0,74 + 5,07 + 4,09 + 3,2 + 3,17 + 1,23 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67  + 2,01 + 3,2 + 3,2 + 3,24 + 5,3 + 24,55 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 5,01 + 11,86 + 1,2 + 5,65 + 0,74 +  + 5,07 + 4,09 + 3,2 + 3,17 + 1,23 + 1,93 + 3,2 + 3,2 + 3,24 + 1,67  + 2,01 + 3,2 + 3,2 + 3,24 + 5,3 + 24,55 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 0,513 + 3,89 + 3,36 + 1,03 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,51 + 4,1 + 2,57 + 3,01 + 5,7 + 0,51 + 3,89 + 3,36 + 1,03 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 0,75 + 2,08 + 2,37 + 0,48 + 3,51 + 4,1 + 2,57 + 3,01 + 5,7 + 0,51 + 3,89 + 3,36 + 1,03 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 1,59 + 4,97 + 3,43 + 1,67 + 5,61 + 0,75 + 2,08  + 2,37 + 0,48 + 3,51 + 4,1 + 2,57 + 3,01 + 5,7 + 0,51 + 3,89 + 3,36 + 1,03 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>1 + 3,36 + 3,27 + 3,21 + 3,2 + 1,56 + 5,57 + 7,34 + 6,48 + 1,59 + 4,97 + 3,43 + 1,67 + 5,61 + 0,75 + 2,08  + 2,37 + 0,48 + 3,51 + 4,1 + 2,57 + 3,01 + 5,7 + 0,51 + 3,89 + 3,36 + 1,03 + 2,86 + 1</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -1715,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" topLeftCell="U17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1846,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -1889,18 +1916,24 @@
         <v>152</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="X2" s="1"/>
+        <v>389</v>
+      </c>
+      <c r="X2" s="10">
+        <f>1 + 0.62 + 1.52 + 3.2 + 3.24 + 3.38 + 5.48 + 23.37 + 3.2 + 7.42 + 4.44 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>88.210000000000008</v>
+      </c>
       <c r="Z2" s="3" t="s">
         <v>257</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB2" s="1"/>
-    </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+      <c r="AB2" s="10">
+        <f>1 + 2.01 + 3.2 + 3.2 + 3.24 + 5.3 + 10.81 + 14.77 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>50.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>149</v>
       </c>
@@ -1970,18 +2003,24 @@
         <v>153</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="X3" s="1"/>
+        <v>388</v>
+      </c>
+      <c r="X3" s="10">
+        <f>1 + 3.42 + 3.7 + 1.52 + 3.2 + 3.24 + 3.38 + 5.48 + 23.37 + 3.2 + 7.42 + 4.44 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>94.710000000000008</v>
+      </c>
       <c r="Z3" s="3" t="s">
         <v>258</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>1 + 5.06 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67 + 2.01 + 3.2 + 3.24 + 5.3 + 10.81 + 14.77 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>65.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
@@ -2051,18 +2090,24 @@
         <v>151</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="X4" s="1"/>
+        <v>390</v>
+      </c>
+      <c r="X4" s="10">
+        <f>1 + 1.97 + 3.24 + 3.2 + 3.2 + 1.14 + 4.44 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>49.529999999999994</v>
+      </c>
       <c r="Z4" s="3" t="s">
         <v>259</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="AB4" s="5">
+        <f>1 + 5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67 + 2.01 + 3.2 + 3.24 + 5.3 + 10.81 + 14.77 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>77.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>149</v>
       </c>
@@ -2132,18 +2177,24 @@
         <v>150</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="X5" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="X5" s="10">
+        <f>1 + 4.38 + 3.27 + 3.2 + 1.27 + 9.51 + 4.44 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>58.41</v>
+      </c>
       <c r="Z5" s="3" t="s">
         <v>260</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="AB5" s="5">
+        <f>1 + 4.7 + 3.17 + 3.32 + 1.35 + 0.74 + 5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67 + 2.01 + 3.2 + 3.24 + 5.3 + 10.81 + 14.77 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>90.860000000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>149</v>
       </c>
@@ -2213,18 +2264,24 @@
         <v>149</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="X6" s="1"/>
+        <v>392</v>
+      </c>
+      <c r="X6" s="10">
+        <f>1 + 4.4 + 3.27 + 3.2 + 1.24 + 9.35 + 9.51 + 4.44 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>67.75</v>
+      </c>
       <c r="Z6" s="3" t="s">
         <v>261</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="AB6" s="5">
+        <f>1 + 5.01 + 8.62 + 3.24 + 1.2 + 5.65 + 0.74 + 5.06 + 4.09 + 3.2 + 3.17 + 1.23 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67 + 2.01 + 3.2 + 3.24 + 5.3 + 10.81 + 14.77 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>102.04000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>150</v>
       </c>
@@ -2294,18 +2351,24 @@
         <v>162</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="X7" s="1"/>
+        <v>393</v>
+      </c>
+      <c r="X7" s="10">
+        <f>1 + 6.4 + 0.8 + 4.17 + 4.38 + 3.27 + 3.2 + 1.27 + 9.51 + 4.44 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>69.78</v>
+      </c>
       <c r="Z7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB7" s="10">
+        <f>1 + 3.36 + 3.27 + 3.21 + 3.2 + 1.56 + 5.57 + 6.31 + 6.48 + 1.59 + 4.97 + 3.43 + 0.9 + 5.61 + 0.75 + 2.09 + 2.37 + 0.48 + 3.5 + 4.1 + 2.57 + 4.36 + 4.35 + 0.52 + 3.89 + 3.36 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>90.059999999999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
@@ -2375,18 +2438,24 @@
         <v>163</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="X8" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="X8" s="4">
+        <f>1 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>15.069999999999999</v>
+      </c>
       <c r="Z8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>1 + 0.52 + 3.89 + 3.36 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>16.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -2456,18 +2525,24 @@
         <v>164</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="X9" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="X9" s="4">
+        <f>1 + 1.37 + 17.27 + 6.11 + 0.66 + 2.9 + 2.3 + 0.4 + 1.7</f>
+        <v>33.71</v>
+      </c>
       <c r="Z9" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB9" s="10">
+        <f>1 + 0.48 + 3.5 + 4.1 + 2.57 + 4.36 + 4.35 + 0.52 + 3.89 + 3.36 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>35.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>150</v>
       </c>
@@ -2537,18 +2612,24 @@
         <v>167</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="X10" s="1"/>
+        <v>396</v>
+      </c>
+      <c r="X10" s="10">
+        <f>1 + 2.55 + 3.2 + 1.38 + 1.72 + 3.2 + 3.25 + 1.36 + 1.45 + 3.2 + 3.24 + 3.38 + 5.55 + 23.46 + 3.2 + 7.55 + 10.06 + 3.2 + 8.23 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>100.85000000000001</v>
+      </c>
       <c r="Z10" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB10" s="10">
+        <f>1 + 0.75 + 2.09 + 2.37 + 0.48 + 3.5 + 4.1 + 2.57 + 4.36 + 4.35 + 0.52 + 3.89 + 3.36 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -2618,18 +2699,24 @@
         <v>168</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="X11" s="1"/>
+        <v>397</v>
+      </c>
+      <c r="X11" s="10">
+        <f>1 + 3.33 + 3.77 + 1.45 + 3.2 + 3.24 + 3.38 + 5.55 + 23.46 + 3.2 + 7.55 + 10.06 + 3.2 + 8.23 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>91.29</v>
+      </c>
       <c r="Z11" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB11" s="10">
+        <f>1 + 1.59 + 4.97 + 3.43 + 1.67 + 0.9 + 5.61 + 0.75 + 2.09 + 2.37 + 0.48 + 3.5 + 4.1 + 2.57 + 4.36 + 4.35 + 0.52 + 3.89 + 3.36 + 2.3 + 0.4 + 0.7 + 2.86 + 1</f>
+        <v>58.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>151</v>
       </c>
@@ -2699,16 +2786,24 @@
         <v>169</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="X12" s="1"/>
+        <v>398</v>
+      </c>
+      <c r="X12" s="10">
+        <f>1 + 3.34 + 3.77 + 1.45 + 3.2 + 3.24  + 3.38 + 5.55 + 23.46 + 3.2 + 7.55 + 10.06 + 3.2 + 8.23 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>91.300000000000011</v>
+      </c>
       <c r="Z12" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB12" s="10">
+        <f>1 + 0.43 + 5.5 + 2.01 + 3.2 + 3.2 + 3.24 + 5.3 + 24.55 + 2.86 + 1</f>
+        <v>52.29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
@@ -2778,16 +2873,24 @@
         <v>156</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="X13" s="1"/>
+        <v>399</v>
+      </c>
+      <c r="X13" s="10">
+        <f>1 + 4.48 + 3.24 + 3.2 + 1.19 + 9.52 + 9.71 + 10.06 + 3.2 + 8.23 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>64.5</v>
+      </c>
       <c r="Z13" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB13" s="10">
+        <f>1 + 5.03 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67  + 2.01 + 3.2 + 3.2 + 3.24 + 5.3 + 24.55 + 2.86 + 1</f>
+        <v>64.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>151</v>
       </c>
@@ -2857,16 +2960,24 @@
         <v>165</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="X14" s="1"/>
+        <v>400</v>
+      </c>
+      <c r="X14" s="10">
+        <f>1 + 4.43 + 3.24 + 3.2 + 1.31 + 9.71 + 10.06 + 3.2 + 8.23 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>55.050000000000004</v>
+      </c>
       <c r="Z14" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB14" s="10">
+        <f>1 + 5.07 + 4.09 + 3.2 + 3.17 + 1.23 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67  + 2.01 + 3.2 + 3.2 + 3.24 + 5.3 + 24.55 + 2.86 + 1</f>
+        <v>76.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>151</v>
       </c>
@@ -2936,16 +3047,24 @@
         <v>166</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="X15" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="X15" s="4">
+        <f>1 + 2.05 + 3.23 + 3.2 + 3.78 + 10.06 + 3.2 + 8.23 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>45.419999999999995</v>
+      </c>
       <c r="Z15" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB15" s="10">
+        <f>1 + 4.7 + 3.17 + 3.32 + 1.35 + 0.74 + 5.07 + 4.09 + 3.2 + 3.17 + 1.23 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67  + 2.01 + 3.2 + 3.2 + 3.24 + 5.3 + 24.55 + 2.86 + 1</f>
+        <v>89.640000000000015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>151</v>
       </c>
@@ -3015,16 +3134,24 @@
         <v>154</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="X16" s="1"/>
+        <v>402</v>
+      </c>
+      <c r="X16" s="4">
+        <f>1 + 3.49 + 3.24 + 3.2 + 1.8 + 2.9 + 1</f>
+        <v>16.630000000000003</v>
+      </c>
       <c r="Z16" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB16" s="10">
+        <f>1 + 5.01 + 11.86 + 1.2 + 5.65 + 0.74 +  + 5.07 + 4.09 + 3.2 + 3.17 + 1.23 + 1.93 + 3.2 + 3.2 + 3.24 + 1.67  + 2.01 + 3.2 + 3.2 + 3.24 + 5.3 + 24.55 + 2.86 + 1</f>
+        <v>100.82000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>152</v>
       </c>
@@ -3094,16 +3221,24 @@
         <v>155</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="X17" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="X17" s="4">
+        <f>1 + 1.58 + 6.11 + 0.66 + 2.9 + 1</f>
+        <v>13.250000000000002</v>
+      </c>
       <c r="Z17" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA17" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB17" s="10">
+        <f>1 + 3.36 + 3.27 + 3.21 + 3.2 + 1.56 + 5.57 + 7.34 + 6.48 + 1.59 + 4.97 + 3.43 + 1.67 + 5.61 + 0.75 + 2.08  + 2.37 + 0.48 + 3.51 + 4.1 + 2.57 + 3.01 + 5.7 + 0.51 + 3.89 + 3.36 + 1.03 + 2.86 + 1</f>
+        <v>89.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>152</v>
       </c>
@@ -3173,16 +3308,24 @@
         <v>175</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="X18" s="1"/>
+        <v>404</v>
+      </c>
+      <c r="X18" s="10">
+        <f>1 + 2.55 + 3.2 + 1.38 + 1.72 + 3.2 + 3.25 + 1.36 + 1.45 + 3.2 + 3.24 + 3.38 + 5.55 + 23.46 + 3.2 + 7.55 + 10.06 + 3.2 + 8.23 + 6.11 + 0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>104.25000000000001</v>
+      </c>
       <c r="Z18" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA18" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AB18" s="4">
+        <f>1 + 0.513 + 3.89 + 3.36 + 1.03 + 2.86 + 1</f>
+        <v>13.652999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
@@ -3252,16 +3395,24 @@
         <v>176</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="X19" s="1"/>
+        <v>405</v>
+      </c>
+      <c r="X19" s="10">
+        <f>1 + 3.33 + 3.77 + 1.45 + 3.2 + 3.24 + 3.38 + 5.55 + 23.46 + 3.2 + 7.55 + 10.06 + 3.2 + 8.23 + 6.11 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>94.690000000000012</v>
+      </c>
       <c r="Z19" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA19" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB19" s="4">
+        <f>1 + 3.51 + 4.1 + 2.57 + 3.01 + 5.7 + 0.51 + 3.89 + 3.36 + 1.03 + 2.86 + 1</f>
+        <v>32.540000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>152</v>
       </c>
@@ -3331,16 +3482,24 @@
         <v>177</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="X20" s="1"/>
+        <v>406</v>
+      </c>
+      <c r="X20" s="10">
+        <f>1 + 3.34 + 3.77 + 1.45 + 3.2 + 3.24  + 3.38 + 5.55 + 23.46 + 3.2 + 7.55 + 10.06 + 3.2 + 8.23 + 6.11 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>94.700000000000017</v>
+      </c>
       <c r="Z20" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB20" s="10">
+        <f>1 + 0.75 + 2.08 + 2.37 + 0.48 + 3.51 + 4.1 + 2.57 + 3.01 + 5.7 + 0.51 + 3.89 + 3.36 + 1.03 + 2.86 + 1</f>
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>152</v>
       </c>
@@ -3410,16 +3569,24 @@
         <v>172</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="X21" s="1"/>
+        <v>407</v>
+      </c>
+      <c r="X21" s="10">
+        <f>1 + 4.48 + 3.24 + 3.2 + 1.19 + 9.52 + 9.71 + 10.06 + 3.2 + 8.23 + 6.11 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>67.90000000000002</v>
+      </c>
       <c r="Z21" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB21" s="5">
+        <f>1 + 1.59 + 4.97 + 3.43 + 1.67 + 5.61 + 0.75 + 2.08  + 2.37 + 0.48 + 3.51 + 4.1 + 2.57 + 3.01 + 5.7 + 0.51 + 3.89 + 3.36 + 1.03 + 2.86 + 1</f>
+        <v>55.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>153</v>
       </c>
@@ -3489,11 +3656,21 @@
         <v>173</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="X22" s="1"/>
-    </row>
-    <row r="23" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="X22" s="10">
+        <f>1 + 4.43 + 3.24 + 3.2 + 1.31 + 9.71 + 10.06 + 3.2 + 8.23 + 6.11 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>58.45</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB22">
+        <f>SUM(AB2:AB21)</f>
+        <v>1241.133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>153</v>
       </c>
@@ -3563,11 +3740,14 @@
         <v>174</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="X23" s="1"/>
-    </row>
-    <row r="24" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+      <c r="X23" s="10">
+        <f>1 + 2.05 + 3.23 + 3.2 + 3.78 + 10.06 + 3.2 + 8.23 + 6.11 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>48.819999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
@@ -3637,11 +3817,14 @@
         <v>170</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="X24" s="1"/>
-    </row>
-    <row r="25" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="X24" s="4">
+        <f>1 + 3.49 + 3.24 + 3.2 + 1.8 + 0.66 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>21.349999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
@@ -3711,9 +3894,12 @@
         <v>171</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="X25" s="1"/>
+        <v>411</v>
+      </c>
+      <c r="X25" s="4">
+        <f>1 + 1.45 + 6.11 +  0.7 + 0.4 + 2.3 + 0.66 + 2.9 + 1</f>
+        <v>16.520000000000003</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -3781,11 +3967,13 @@
         <f>0.51 + 2.08 + 1</f>
         <v>3.59</v>
       </c>
-      <c r="V26" s="11" t="s">
-        <v>388</v>
-      </c>
+      <c r="V26" s="11"/>
       <c r="W26" t="s">
-        <v>389</v>
+        <v>432</v>
+      </c>
+      <c r="X26">
+        <f>SUM(X2:X25)</f>
+        <v>1462.1399999999999</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
